--- a/db/papacantella.xlsx
+++ b/db/papacantella.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,41 +481,40 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>249</v>
+      </c>
       <c r="C3" s="1">
-        <v>249</v>
+        <v>499</v>
       </c>
       <c r="D3" s="1">
-        <v>499</v>
+        <v>749</v>
       </c>
       <c r="E3" s="1">
-        <v>749</v>
+        <v>999</v>
       </c>
       <c r="F3" s="1">
-        <v>999</v>
+        <v>1249</v>
       </c>
       <c r="G3" s="1">
-        <v>1249</v>
+        <v>1499</v>
       </c>
       <c r="H3" s="1">
-        <v>1499</v>
+        <v>1574</v>
       </c>
       <c r="I3" s="1">
-        <v>1574</v>
+        <v>1799</v>
       </c>
       <c r="J3" s="1">
-        <v>1799</v>
+        <v>2024</v>
       </c>
       <c r="K3" s="1">
-        <v>2024</v>
+        <v>2099</v>
       </c>
       <c r="L3" s="1">
-        <v>2099</v>
+        <v>2309</v>
       </c>
       <c r="M3" s="1">
-        <v>2309</v>
-      </c>
-      <c r="N3" s="1">
         <v>2519</v>
       </c>
       <c r="O3" s="1"/>

--- a/db/papacantella.xlsx
+++ b/db/papacantella.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WPy64-3741\notebooks\spyder\tms-load-robot\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WinPython\dev\tms-load-robot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Brookshire, TX</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Destination</t>
+  </si>
+  <si>
+    <t>Grand Prairie, TX</t>
   </si>
 </sst>
 </file>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +886,20 @@
         <v>1400</v>
       </c>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>400</v>
+      </c>
+      <c r="C12" s="1">
+        <v>700</v>
+      </c>
+      <c r="D12" s="1">
+        <v>975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/db/papacantella.xlsx
+++ b/db/papacantella.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Brookshire, TX</t>
   </si>
@@ -53,13 +53,22 @@
     <t>Morris, IL</t>
   </si>
   <si>
-    <t>Belleville, MI</t>
-  </si>
-  <si>
     <t>Destination</t>
   </si>
   <si>
     <t>Grand Prairie, TX</t>
+  </si>
+  <si>
+    <t>Monroe Township, NJ</t>
+  </si>
+  <si>
+    <t>Monrovia, MD</t>
+  </si>
+  <si>
+    <t>Belleville,  MI</t>
+  </si>
+  <si>
+    <t>Owatonna, MN</t>
   </si>
 </sst>
 </file>
@@ -378,18 +387,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -398,9 +406,9 @@
     <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -444,8 +452,11 @@
       <c r="O1">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -479,50 +490,59 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1">
-        <v>499</v>
+        <v>570</v>
       </c>
       <c r="D3" s="1">
-        <v>749</v>
+        <v>850</v>
       </c>
       <c r="E3" s="1">
-        <v>999</v>
+        <v>1120</v>
       </c>
       <c r="F3" s="1">
-        <v>1249</v>
+        <v>1400</v>
       </c>
       <c r="G3" s="1">
-        <v>1499</v>
+        <v>1680</v>
       </c>
       <c r="H3" s="1">
-        <v>1574</v>
+        <v>1945</v>
       </c>
       <c r="I3" s="1">
-        <v>1799</v>
+        <v>2200</v>
       </c>
       <c r="J3" s="1">
-        <v>2024</v>
+        <v>2475</v>
       </c>
       <c r="K3" s="1">
-        <v>2099</v>
+        <v>2750</v>
       </c>
       <c r="L3" s="1">
-        <v>2309</v>
+        <v>3000</v>
       </c>
       <c r="M3" s="1">
-        <v>2519</v>
-      </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3240</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3510</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3780</v>
+      </c>
+      <c r="P3" s="1">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -568,8 +588,9 @@
       <c r="O4" s="1">
         <v>2750</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -615,51 +636,59 @@
       <c r="O5" s="1">
         <v>1350</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="C6" s="1">
-        <v>729</v>
+        <v>800</v>
       </c>
       <c r="D6" s="1">
-        <v>1079</v>
+        <v>1185</v>
       </c>
       <c r="E6" s="1">
-        <v>1399</v>
+        <v>1540</v>
       </c>
       <c r="F6" s="1">
-        <v>1596</v>
+        <v>1825</v>
       </c>
       <c r="G6" s="1">
-        <v>1915</v>
+        <v>2160</v>
       </c>
       <c r="H6" s="1">
-        <v>2099</v>
+        <v>2415</v>
       </c>
       <c r="I6" s="1">
-        <v>2399</v>
+        <v>2760</v>
       </c>
       <c r="J6" s="1">
-        <v>2520</v>
+        <v>3060</v>
       </c>
       <c r="K6" s="1">
-        <v>2661</v>
+        <v>3400</v>
       </c>
       <c r="L6" s="1">
-        <v>2928</v>
+        <v>3740</v>
       </c>
       <c r="M6" s="1">
-        <v>3194</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4080</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4355</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4690</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -701,8 +730,9 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -744,8 +774,9 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -791,8 +822,9 @@
       <c r="O9" s="1">
         <v>2200</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -838,8 +870,9 @@
       <c r="O10" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -885,10 +918,11 @@
       <c r="O11" s="1">
         <v>1400</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>400</v>
@@ -899,6 +933,138 @@
       <c r="D12" s="1">
         <v>975</v>
       </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>470</v>
+      </c>
+      <c r="C13" s="1">
+        <v>880</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1245</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1580</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1925</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2280</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2625</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2920</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3240</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3550</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>470</v>
+      </c>
+      <c r="C14" s="1">
+        <v>880</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1245</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1580</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1925</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2280</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2625</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2920</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3240</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3550</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>525</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1135</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1475</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1580</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1840</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2190</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2345</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2600</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2880</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3130</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/papacantella.xlsx
+++ b/db/papacantella.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Brookshire, TX</t>
   </si>
@@ -69,6 +69,33 @@
   </si>
   <si>
     <t>Owatonna, MN</t>
+  </si>
+  <si>
+    <t>Stockton, CA</t>
+  </si>
+  <si>
+    <t>Bloomfield, CT</t>
+  </si>
+  <si>
+    <t>Daytona Beach, FL</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Minooka, IL</t>
+  </si>
+  <si>
+    <t>Nazareth, PA</t>
+  </si>
+  <si>
+    <t>Olympia, WA</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Lewisville, TX</t>
   </si>
 </sst>
 </file>
@@ -387,23 +414,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -457,32 +478,32 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C2" s="1">
-        <v>695</v>
+        <v>780</v>
       </c>
       <c r="D2" s="1">
-        <v>925</v>
+        <v>1050</v>
       </c>
       <c r="E2" s="1">
-        <v>1200</v>
+        <v>1340</v>
       </c>
       <c r="F2" s="1">
-        <v>1375</v>
+        <v>1460</v>
       </c>
       <c r="G2" s="1">
-        <v>1630</v>
+        <v>1740</v>
       </c>
       <c r="H2" s="1">
-        <v>1885</v>
+        <v>1995</v>
       </c>
       <c r="I2" s="1">
-        <v>2100</v>
+        <v>2250</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -493,7 +514,7 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
@@ -532,18 +553,12 @@
       <c r="M3" s="1">
         <v>3240</v>
       </c>
-      <c r="N3" s="1">
-        <v>3510</v>
-      </c>
-      <c r="O3" s="1">
-        <v>3780</v>
-      </c>
-      <c r="P3" s="1">
-        <v>4015</v>
-      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -591,55 +606,51 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D5" s="1">
-        <v>545</v>
+        <v>585</v>
       </c>
       <c r="E5" s="1">
-        <v>640</v>
+        <v>690</v>
       </c>
       <c r="F5" s="1">
-        <v>710</v>
+        <v>765</v>
       </c>
       <c r="G5" s="1">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="H5" s="1">
-        <v>855</v>
+        <v>915</v>
       </c>
       <c r="I5" s="1">
-        <v>930</v>
+        <v>995</v>
       </c>
       <c r="J5" s="1">
-        <v>1025</v>
+        <v>1090</v>
       </c>
       <c r="K5" s="1">
-        <v>1080</v>
+        <v>1150</v>
       </c>
       <c r="L5" s="1">
-        <v>1140</v>
+        <v>1230</v>
       </c>
       <c r="M5" s="1">
-        <v>1200</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1250</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1350</v>
-      </c>
+        <v>1295</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1">
@@ -678,106 +689,100 @@
       <c r="M6" s="1">
         <v>4080</v>
       </c>
-      <c r="N6" s="1">
-        <v>4355</v>
-      </c>
-      <c r="O6" s="1">
-        <v>4690</v>
-      </c>
-      <c r="P6" s="1">
-        <v>5025</v>
-      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>285</v>
+        <v>350</v>
       </c>
       <c r="C7" s="1">
-        <v>550</v>
+        <v>680</v>
       </c>
       <c r="D7" s="1">
-        <v>765</v>
+        <v>1005</v>
       </c>
       <c r="E7" s="1">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="F7" s="1">
-        <v>1175</v>
+        <v>1500</v>
       </c>
       <c r="G7" s="1">
-        <v>1380</v>
+        <v>1740</v>
       </c>
       <c r="H7" s="1">
-        <v>1575</v>
+        <v>1995</v>
       </c>
       <c r="I7" s="1">
-        <v>1760</v>
+        <v>2240</v>
       </c>
       <c r="J7" s="1">
-        <v>1935</v>
+        <v>2430</v>
       </c>
       <c r="K7" s="1">
-        <v>2100</v>
+        <v>2650</v>
       </c>
       <c r="L7" s="1">
-        <v>2255</v>
+        <v>2750</v>
       </c>
       <c r="M7" s="1">
-        <v>2400</v>
+        <v>2940</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>285</v>
+        <v>350</v>
       </c>
       <c r="C8" s="1">
-        <v>550</v>
+        <v>680</v>
       </c>
       <c r="D8" s="1">
-        <v>765</v>
+        <v>1005</v>
       </c>
       <c r="E8" s="1">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="F8" s="1">
-        <v>1175</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="1">
-        <v>1380</v>
+        <v>1740</v>
       </c>
       <c r="H8" s="1">
-        <v>1575</v>
+        <v>1995</v>
       </c>
       <c r="I8" s="1">
-        <v>1760</v>
+        <v>2240</v>
       </c>
       <c r="J8" s="1">
-        <v>1935</v>
+        <v>2430</v>
       </c>
       <c r="K8" s="1">
-        <v>2100</v>
+        <v>2650</v>
       </c>
       <c r="L8" s="1">
-        <v>2255</v>
+        <v>2750</v>
       </c>
       <c r="M8" s="1">
-        <v>2400</v>
+        <v>2940</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1">
@@ -825,7 +830,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
@@ -873,7 +878,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
@@ -921,17 +926,17 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="C12" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="D12" s="1">
-        <v>975</v>
+        <v>1095</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -947,7 +952,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -987,7 +992,7 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -1027,38 +1032,38 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>525</v>
       </c>
       <c r="C15" s="1">
-        <v>1135</v>
+        <v>780</v>
       </c>
       <c r="D15" s="1">
-        <v>1475</v>
+        <v>1050</v>
       </c>
       <c r="E15" s="1">
-        <v>1580</v>
+        <v>1365</v>
       </c>
       <c r="F15" s="1">
-        <v>1840</v>
+        <v>1675</v>
       </c>
       <c r="G15" s="1">
-        <v>2190</v>
+        <v>1980</v>
       </c>
       <c r="H15" s="1">
-        <v>2345</v>
+        <v>2275</v>
       </c>
       <c r="I15" s="1">
-        <v>2600</v>
+        <v>2560</v>
       </c>
       <c r="J15" s="1">
-        <v>2880</v>
+        <v>2835</v>
       </c>
       <c r="K15" s="1">
-        <v>3130</v>
+        <v>3100</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1066,6 +1071,384 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>265</v>
+      </c>
+      <c r="C16" s="1">
+        <v>400</v>
+      </c>
+      <c r="D16" s="1">
+        <v>540</v>
+      </c>
+      <c r="E16" s="1">
+        <v>650</v>
+      </c>
+      <c r="F16" s="1">
+        <v>715</v>
+      </c>
+      <c r="G16" s="1">
+        <v>755</v>
+      </c>
+      <c r="H16" s="1">
+        <v>820</v>
+      </c>
+      <c r="I16" s="1">
+        <v>855</v>
+      </c>
+      <c r="J16" s="1">
+        <v>875</v>
+      </c>
+      <c r="K16" s="1">
+        <v>915</v>
+      </c>
+      <c r="L16" s="1">
+        <v>940</v>
+      </c>
+      <c r="M16" s="1">
+        <v>975</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>525</v>
+      </c>
+      <c r="C17" s="1">
+        <v>990</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1445</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1890</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2325</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2705</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3100</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3485</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3855</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4230</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4575</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4930</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>480</v>
+      </c>
+      <c r="C18" s="1">
+        <v>880</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1275</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1665</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2005</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2330</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2695</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3025</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3335</v>
+      </c>
+      <c r="K18" s="1">
+        <v>3655</v>
+      </c>
+      <c r="L18" s="1">
+        <v>4005</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4305</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>505</v>
+      </c>
+      <c r="C19" s="1">
+        <v>820</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1140</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>405</v>
+      </c>
+      <c r="C20" s="1">
+        <v>660</v>
+      </c>
+      <c r="D20" s="1">
+        <v>930</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1715</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1955</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2185</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2400</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2650</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2860</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3060</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>470</v>
+      </c>
+      <c r="C21" s="1">
+        <v>880</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1245</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1580</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1925</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2280</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2625</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2920</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3240</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3550</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>450</v>
+      </c>
+      <c r="C22" s="1">
+        <v>850</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1245</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1640</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1975</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2310</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2625</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2920</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3285</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3500</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3795</v>
+      </c>
+      <c r="M22" s="1">
+        <v>4020</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>380</v>
+      </c>
+      <c r="C23" s="1">
+        <v>625</v>
+      </c>
+      <c r="D23" s="1">
+        <v>900</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1145</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1390</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1620</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1735</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1890</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2020</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2140</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2340</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2495</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>595</v>
+      </c>
+      <c r="C24" s="1">
+        <v>890</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>485</v>
+      </c>
+      <c r="C25" s="1">
+        <v>800</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
